--- a/ddl_sql/NpsLite_Letter.xlsx
+++ b/ddl_sql/NpsLite_Letter.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,21 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spadte\source\repos\padtes\DotNetCorePOC\ddl_sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9AE7D768-0620-45AE-8CAF-F49DD6E99D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35687396-84BB-46CF-839E-BB52B743636F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpsLite_Letter" sheetId="1" r:id="rId1"/>
     <sheet name="Apy_letter" sheetId="3" r:id="rId2"/>
     <sheet name="All_Columns" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NpsLite_Letter!$A$1:$E$96</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="279">
   <si>
     <t>database column</t>
   </si>
@@ -30,574 +43,841 @@
     <t>Letter placeholder</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "fh":{</t>
   </si>
   <si>
-    <t>10:"h001_line_sequence_number",</t>
-  </si>
-  <si>
-    <t>20:"h002_file_section_type",</t>
-  </si>
-  <si>
-    <t>30:"p003_file_type",</t>
-  </si>
-  <si>
-    <t>40:"h003_batch_id",</t>
-  </si>
-  <si>
-    <t>50:"h004_date_of_file_creation_mmddyyyy",</t>
-  </si>
-  <si>
-    <t>60:"h005_printer_id",</t>
-  </si>
-  <si>
-    <t>70:"h006_number_of_pran_request_records",</t>
-  </si>
-  <si>
-    <t>80:"h006_type_of_sector"</t>
-  </si>
-  <si>
     <t>}</t>
   </si>
   <si>
     <t>,"pd":{</t>
   </si>
   <si>
-    <t>10:"p001_line_sequence_number",</t>
-  </si>
-  <si>
-    <t>20:"p002_file_section_type",</t>
-  </si>
-  <si>
-    <t>30:"p003_printing_mode",</t>
-  </si>
-  <si>
-    <t>40:"p004_request_transaction_id",</t>
-  </si>
-  <si>
-    <t>50:"p005_serial_no",</t>
-  </si>
-  <si>
-    <t>60:"p006_courier_id",</t>
-  </si>
-  <si>
-    <t>70:"p007_request_type",</t>
-  </si>
-  <si>
-    <t>80:"p008_pran",</t>
-  </si>
-  <si>
-    <t>90:"p009_acknowledgement_number",</t>
-  </si>
-  <si>
-    <t>100:"p010_first_name",</t>
-  </si>
-  <si>
-    <t>110:"p011_last_name_surname",</t>
-  </si>
-  <si>
-    <t>120:"p012_middle_name_",</t>
-  </si>
-  <si>
-    <t>130:"p013_fathers_first_name",</t>
-  </si>
-  <si>
-    <t>140:"p014_fathers_last_name_surname",</t>
-  </si>
-  <si>
-    <t>150:"p015_fathers_middle_name",</t>
-  </si>
-  <si>
-    <t>160:"p016_date_of_birth",</t>
-  </si>
-  <si>
-    <t>170:"p017_subscriber_address_line_1",</t>
-  </si>
-  <si>
-    <t>180:"p018_subscriber_address_line_2",</t>
-  </si>
-  <si>
-    <t>190:"p019_subscriber_address_line_3",</t>
-  </si>
-  <si>
-    <t>200:"p020_subscriber_address_line_4",</t>
-  </si>
-  <si>
-    <t>210:"p021_subscriber_address_state",</t>
-  </si>
-  <si>
-    <t>220:"p022_subscriber_address_country",</t>
-  </si>
-  <si>
-    <t>230:"p023_subscriber_address_pin",</t>
-  </si>
-  <si>
-    <t>240:"p024_nl_ao_nl_oo_office_name",</t>
-  </si>
-  <si>
-    <t>250:"p025_nl_ao_nl_oo_reg_no",</t>
-  </si>
-  <si>
-    <t>260:"p026_nl_ao_nl_oo_address_line_1",</t>
-  </si>
-  <si>
-    <t>270:"p027_nl_ao_nl_oo_address_line_2",</t>
-  </si>
-  <si>
-    <t>280:"p028_nl_ao_nl_oo_address_line_3",</t>
-  </si>
-  <si>
-    <t>290:"p029_nl_ao_nl_oo_address_line_4",</t>
-  </si>
-  <si>
-    <t>300:"p030_nl_ao_nl_ooaddress_state",</t>
-  </si>
-  <si>
-    <t>310:"p031_nl_ao_nl_oo_address_country",</t>
-  </si>
-  <si>
-    <t>320:"p032_nl_ao_nl_oo_address_pin",</t>
-  </si>
-  <si>
-    <t>330:"p033_nl_ao_nl_cc_office_name",</t>
-  </si>
-  <si>
-    <t>340:"p034_nl_ao_nl_cc_dept",</t>
-  </si>
-  <si>
-    <t>350:"p035_nl_ao_nl_cc_reg_no",</t>
-  </si>
-  <si>
-    <t>360:"p036_nl_ao_nl_cc_address_line_1",</t>
-  </si>
-  <si>
-    <t>370:"p037_nl_ao_nl_cc_address_line_2",</t>
-  </si>
-  <si>
-    <t>380:"p038_nl_ao_nl_cc_address_line_3",</t>
-  </si>
-  <si>
-    <t>390:"p039_nl_ao_nl_cc_address_line_4",</t>
-  </si>
-  <si>
-    <t>400:"p040_nl_ao_nl_cc_address_state",</t>
-  </si>
-  <si>
-    <t>410:"p041_nl_ao_nl_cc_address_country",</t>
-  </si>
-  <si>
-    <t>420:"p042_nl_ao_nl_cc_address_pin",</t>
-  </si>
-  <si>
-    <t>430:"p043_nl_ao_nl_oo_bar_code",</t>
-  </si>
-  <si>
-    <t>440:"p044_nl_ao_nl_cc_bar_code",</t>
-  </si>
-  <si>
-    <t>450:"p045_subscriber_bar_code",</t>
-  </si>
-  <si>
-    <t>460:"p046_photograph",</t>
-  </si>
-  <si>
-    <t>470:"p047_signature",</t>
-  </si>
-  <si>
-    <t>480:"p048_kit_dispatch_flag_for_subscriber",</t>
-  </si>
-  <si>
-    <t>490:"p049_mothers_name_flag",</t>
-  </si>
-  <si>
-    <t>500:"p050_mothers_first_name",</t>
-  </si>
-  <si>
-    <t>510:"p051_mothers_middle_name",</t>
-  </si>
-  <si>
-    <t>520:"p052_mothers_last_name",</t>
-  </si>
-  <si>
-    <t>530:"p053_sot_language_selected",</t>
-  </si>
-  <si>
-    <t>540:"p054_apy_flag",</t>
-  </si>
-  <si>
-    <t>550:"p055_spouse_name",</t>
-  </si>
-  <si>
-    <t>560:"p056_apy_service_provider_name",</t>
-  </si>
-  <si>
-    <t>570:"p057_pension_amount",</t>
-  </si>
-  <si>
-    <t>580:"p058_pension_start_date"</t>
-  </si>
-  <si>
     <t>,"cd":{</t>
   </si>
   <si>
-    <t>10:"c001_line_sequence_number",</t>
-  </si>
-  <si>
-    <t>20:"c002_file_section_type",</t>
-  </si>
-  <si>
-    <t>30:"c003_pran",</t>
-  </si>
-  <si>
-    <t>40:"c004_acknowledgement_number",</t>
-  </si>
-  <si>
-    <t>50:"c005_status",</t>
-  </si>
-  <si>
-    <t>60:"c006_activation_date_mmddyyyy",</t>
-  </si>
-  <si>
-    <t>70:"c007_first_name",</t>
-  </si>
-  <si>
-    <t>80:"c008_last_name_surname",</t>
-  </si>
-  <si>
-    <t>90:"c009_middle_name_",</t>
-  </si>
-  <si>
-    <t>100:"c010_fathers_first_name",</t>
-  </si>
-  <si>
-    <t>110:"c011_fathers_last_name_surname",</t>
-  </si>
-  <si>
-    <t>120:"c012_fathers_middle_name",</t>
-  </si>
-  <si>
-    <t>130:"c013_date_of_birth",</t>
-  </si>
-  <si>
-    <t>140:"c014_gender",</t>
-  </si>
-  <si>
-    <t>150:"c015_pan",</t>
-  </si>
-  <si>
-    <t>160:"c016_correspondence_address_line_1",</t>
-  </si>
-  <si>
-    <t>170:"c017_correspondence_address_line_2",</t>
-  </si>
-  <si>
-    <t>180:"c018_correspondence_address_line_3",</t>
-  </si>
-  <si>
-    <t>190:"c019_correspondence_address_line_4",</t>
-  </si>
-  <si>
-    <t>200:"c020_correspondence_state_union_terr",</t>
-  </si>
-  <si>
-    <t>210:"c021_correspondence_country",</t>
-  </si>
-  <si>
-    <t>220:"c022_correspondence_pin_code",</t>
-  </si>
-  <si>
-    <t>230:"c023_permanent_address_line_1",</t>
-  </si>
-  <si>
-    <t>240:"c024_permanent_address_line_2",</t>
-  </si>
-  <si>
-    <t>250:"c025_permanent_address_line_3",</t>
-  </si>
-  <si>
-    <t>260:"c026_permanent_address_line_4",</t>
-  </si>
-  <si>
-    <t>270:"c027_permanent_address_state_union_terr",</t>
-  </si>
-  <si>
-    <t>280:"c028_permanent_address_country",</t>
-  </si>
-  <si>
-    <t>290:"c029_permanent_address_pin_code",</t>
-  </si>
-  <si>
-    <t>300:"c030_telephone_number",</t>
-  </si>
-  <si>
-    <t>310:"c031_mobile_number",</t>
-  </si>
-  <si>
-    <t>320:"c032_fax_number",</t>
-  </si>
-  <si>
-    <t>330:"c033_email",</t>
-  </si>
-  <si>
-    <t>340:"c034_sms_subscription_flag",</t>
-  </si>
-  <si>
-    <t>350:"c035_email_subscription_flag",</t>
-  </si>
-  <si>
-    <t>360:"c036_subscribers_bank_type",</t>
-  </si>
-  <si>
-    <t>370:"c037_subscriber’s_bank_a_c_no",</t>
-  </si>
-  <si>
-    <t>380:"c038_bank_name",</t>
-  </si>
-  <si>
-    <t>390:"c039_bank_branch",</t>
-  </si>
-  <si>
-    <t>400:"c040_bank_address",</t>
-  </si>
-  <si>
-    <t>410:"c041_bank_address_pin",</t>
-  </si>
-  <si>
-    <t>420:"c042_bank_micr_code",</t>
-  </si>
-  <si>
-    <t>430:"c043_bank_ifs_code",</t>
-  </si>
-  <si>
-    <t>440:"c044_number_of_nominees",</t>
-  </si>
-  <si>
-    <t>450:"c045_number_of_schemes",</t>
-  </si>
-  <si>
-    <t>460:"c046_pan_verification_flag",</t>
-  </si>
-  <si>
-    <t>470:"c047_sip_flag",</t>
-  </si>
-  <si>
-    <t>480:"c048_kyc_flag",</t>
-  </si>
-  <si>
-    <t>490:"c049_susbcriber_occupation",</t>
-  </si>
-  <si>
-    <t>500:"c050_incomplete_bank_details_flag",</t>
-  </si>
-  <si>
-    <t>510:"c051_incomplete_nominee_details_flag",</t>
-  </si>
-  <si>
-    <t>520:"c052_nominee_rejection_reasons",</t>
-  </si>
-  <si>
-    <t>530:"c053_incomplete_scheme_details_flag",</t>
-  </si>
-  <si>
-    <t>540:"c054_scheme_rejection_reasons",</t>
-  </si>
-  <si>
-    <t>550:"c055_pan_duplicate_flag",</t>
-  </si>
-  <si>
-    <t>560:"c056_no_of_switch_used",</t>
-  </si>
-  <si>
-    <t>570:"c057_govt_type_of_subscriber_record",</t>
-  </si>
-  <si>
-    <t>580:"c058_scheme_pref_type",</t>
-  </si>
-  <si>
-    <t>590:"c059_sub_regional_language_code",</t>
-  </si>
-  <si>
-    <t>600:"c060_sub_regional_first_name",</t>
-  </si>
-  <si>
-    <t>610:"c061_sub_regional_middle_name",</t>
-  </si>
-  <si>
-    <t>620:"c062_subregional_last_name",</t>
-  </si>
-  <si>
-    <t>630:"c063_sub_fathers_regional_first_name",</t>
-  </si>
-  <si>
-    <t>640:"c064_sub_fathers_regional_middle_name",</t>
-  </si>
-  <si>
-    <t>650:"c065_sub_fathers_regional_last_name",</t>
-  </si>
-  <si>
-    <t>660:"c066_uid",</t>
-  </si>
-  <si>
-    <t>670:"c067_membership_number",</t>
-  </si>
-  <si>
-    <t>680:"c068_swavalamban_flag",</t>
-  </si>
-  <si>
-    <t>690:"c069_sub_comb_form_flag",</t>
-  </si>
-  <si>
-    <t>700:"c070_apy_flag",</t>
-  </si>
-  <si>
-    <t>710:"c071_spouse_name",</t>
-  </si>
-  <si>
-    <t>720:"c072_apy_service_provider_name",</t>
-  </si>
-  <si>
-    <t>730:"c073_pension_amount",</t>
-  </si>
-  <si>
-    <t>740:"c074_pension_start_date"</t>
-  </si>
-  <si>
     <t>,"nd":{</t>
   </si>
   <si>
-    <t>10:"n001_line_sequence_number",</t>
-  </si>
-  <si>
-    <t>20:"n002_file_section_type",</t>
-  </si>
-  <si>
-    <t>30:"n005_nominee_serial_no",</t>
-  </si>
-  <si>
-    <t>40:"n006_nominee_first_name",</t>
-  </si>
-  <si>
-    <t>50:"n007_nominee_last_name",</t>
-  </si>
-  <si>
-    <t>60:"n008_nominee_middle_name",</t>
-  </si>
-  <si>
-    <t>70:"n009_nominee_date_of_birth",</t>
-  </si>
-  <si>
-    <t>80:"n010_relationship",</t>
-  </si>
-  <si>
-    <t>90:"n011_major_minor_flag",</t>
-  </si>
-  <si>
-    <t>100:"n012_guardian_first_name",</t>
-  </si>
-  <si>
-    <t>110:"n013_guardian_last_name",</t>
-  </si>
-  <si>
-    <t>120:"n014_guardian_middle_name",</t>
-  </si>
-  <si>
-    <t>130:"n015_percentage_share",</t>
-  </si>
-  <si>
-    <t>140:"n016_nominee_invalid_condition"</t>
-  </si>
-  <si>
     <t>,"sd":{</t>
   </si>
   <si>
-    <t>10:"s001_line_sequence_number",</t>
-  </si>
-  <si>
-    <t>20:"s002_file_section_type",</t>
-  </si>
-  <si>
-    <t>30:"s003_record_number_line_item_number",</t>
-  </si>
-  <si>
-    <t>40:"s004_pfm_id",</t>
-  </si>
-  <si>
-    <t>50:"s005_pfm_name",</t>
-  </si>
-  <si>
-    <t>60:"s006_scheme_id",</t>
-  </si>
-  <si>
-    <t>70:"s007_scheme_name",</t>
-  </si>
-  <si>
-    <t>80:"s008_percentage_of_investment",</t>
-  </si>
-  <si>
     <t>, "xx": {</t>
   </si>
   <si>
-    <t>x_p021_subscriber_address_state</t>
-  </si>
-  <si>
-    <t>x_p030_nl_ao_nl_ooaddress_state</t>
-  </si>
-  <si>
-    <t>x_p040_nl_ao_nl_cc_address_state</t>
-  </si>
-  <si>
-    <t>x_c020_correspondence_state_union_terr</t>
-  </si>
-  <si>
-    <t>x_c027_permanent_address_state_union_terr</t>
-  </si>
-  <si>
-    <t>x_p022_subscriber_address_country</t>
-  </si>
-  <si>
-    <t>x_p031_nl_ao_nl_oo_address_country</t>
-  </si>
-  <si>
-    <t>x_p041_nl_ao_nl_cc_address_country</t>
-  </si>
-  <si>
-    <t>x_c021_correspondence_country</t>
-  </si>
-  <si>
-    <t>x_c028_permanent_address_country</t>
-  </si>
-  <si>
-    <t>x_p006_courier_code2</t>
-  </si>
-  <si>
     <t>x_gender</t>
   </si>
   <si>
-    <t>x_formatted_addr_sub</t>
-  </si>
-  <si>
     <t>x_document_id</t>
   </si>
   <si>
-    <t>x_hdr_date</t>
-  </si>
-  <si>
-    <t>x_deliverymode</t>
-  </si>
-  <si>
-    <t>document_id</t>
-  </si>
-  <si>
-    <t>etc</t>
+    <t>X_SYS_NEWDOC</t>
+  </si>
+  <si>
+    <t>word syntax for new page</t>
+  </si>
+  <si>
+    <t>*Subscriberbarcode*</t>
+  </si>
+  <si>
+    <t>PRAN</t>
+  </si>
+  <si>
+    <t>Acknowledgement_Number_Printercode_couriercode</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Middlename</t>
+  </si>
+  <si>
+    <t>LastName/Surname</t>
+  </si>
+  <si>
+    <t>SubscriberAddressline1</t>
+  </si>
+  <si>
+    <t>SubscriberAddressline2</t>
+  </si>
+  <si>
+    <t>SubscriberAddressline3</t>
+  </si>
+  <si>
+    <t>SubscriberAddressline4</t>
+  </si>
+  <si>
+    <t>SubscriberAddressState</t>
+  </si>
+  <si>
+    <t>SubscriberAddressCountry</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>is this same OR some other firstname like parent?</t>
+  </si>
+  <si>
+    <t>NL-AO/NL-OO_Reg._No</t>
+  </si>
+  <si>
+    <t>NL-AO/NL-CC_Reg._No</t>
+  </si>
+  <si>
+    <t>NL-AO/NL-OO_Office_Name</t>
+  </si>
+  <si>
+    <t>First_Name</t>
+  </si>
+  <si>
+    <t>Middle_Name</t>
+  </si>
+  <si>
+    <t>Last Name/Surname</t>
+  </si>
+  <si>
+    <t>Father_First_Name</t>
+  </si>
+  <si>
+    <t>Date_Of_File_Creation(MMDDYYYY)</t>
+  </si>
+  <si>
+    <t>Father_Middle_Name</t>
+  </si>
+  <si>
+    <t>Father_Last_Name</t>
+  </si>
+  <si>
+    <t>Activation_date(MMDDYYYY)_Date</t>
+  </si>
+  <si>
+    <t>Telephone_Number</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>Date_Of_Birth</t>
+  </si>
+  <si>
+    <t>Mobile_Number</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>SubscriberAddress line3</t>
+  </si>
+  <si>
+    <t>SubscriberAddress line4</t>
+  </si>
+  <si>
+    <t>SubscriberAddressPIN</t>
+  </si>
+  <si>
+    <t>Bank_Name</t>
+  </si>
+  <si>
+    <t>Subscriber’s_Bank_A/C_No.</t>
+  </si>
+  <si>
+    <t>Bank_Branch</t>
+  </si>
+  <si>
+    <t>Bank_Address</t>
+  </si>
+  <si>
+    <t>Bank_Address_PIN</t>
+  </si>
+  <si>
+    <t>Subscriber's_Bank_Type</t>
+  </si>
+  <si>
+    <t>Bank_MICR_Code</t>
+  </si>
+  <si>
+    <t>Nominee_First_Name</t>
+  </si>
+  <si>
+    <t>Nominee_Middle_Name</t>
+  </si>
+  <si>
+    <t>Nominee_Last_Name_ND_1</t>
+  </si>
+  <si>
+    <t>Nominee_Last_Name_ND_2</t>
+  </si>
+  <si>
+    <t>Nominee_Last_Name_ND_3</t>
+  </si>
+  <si>
+    <t>Nominee_Date_of_Birth_ND_1</t>
+  </si>
+  <si>
+    <t>Nominee_Date_of_Birth_ND_2</t>
+  </si>
+  <si>
+    <t>Nominee_Date_of_Birth_ND_3</t>
+  </si>
+  <si>
+    <t>Relationship_ND_1</t>
+  </si>
+  <si>
+    <t>Relationship_ND_2</t>
+  </si>
+  <si>
+    <t>Relationship_ND_3</t>
+  </si>
+  <si>
+    <t>Percentage_Share_ND_1</t>
+  </si>
+  <si>
+    <t>Percentage_Share_ND_2</t>
+  </si>
+  <si>
+    <t>Percentage_Share_ND_3</t>
+  </si>
+  <si>
+    <t>Guardian_First_Name</t>
+  </si>
+  <si>
+    <t>Guardian_Middle_Name</t>
+  </si>
+  <si>
+    <t>Guardian_Last_Name_ND_1</t>
+  </si>
+  <si>
+    <t>Guardian_Last_Name_ND_2</t>
+  </si>
+  <si>
+    <t>Guardian_Last_Name_ND_3</t>
+  </si>
+  <si>
+    <t>PFM_Name_SD_1</t>
+  </si>
+  <si>
+    <t>PFM_Name_SD_2</t>
+  </si>
+  <si>
+    <t>PFM_Name_SD_3</t>
+  </si>
+  <si>
+    <t>Scheme_Name_SD_1</t>
+  </si>
+  <si>
+    <t>Scheme_Name_SD_2</t>
+  </si>
+  <si>
+    <t>Scheme_Name_SD_3</t>
+  </si>
+  <si>
+    <t>Percentage_of_Investment_SD_1</t>
+  </si>
+  <si>
+    <t>Percentage_of_Investment_SD_2</t>
+  </si>
+  <si>
+    <t>Percentage_of_Investment_SD_3</t>
+  </si>
+  <si>
+    <t>preferred placeholder</t>
+  </si>
+  <si>
+    <t>LastName_Surname</t>
+  </si>
+  <si>
+    <t>NL-AO_NL-OO_Reg._No</t>
+  </si>
+  <si>
+    <t>NL-AO_NL-CC_Reg._No</t>
+  </si>
+  <si>
+    <t>NL-AO_NL-OO_Office_Name</t>
+  </si>
+  <si>
+    <t>Last Name_Surname</t>
+  </si>
+  <si>
+    <t>Subscribers_Bank_Type</t>
+  </si>
+  <si>
+    <t>Date_Of_File_Creation_MMDDYYYY</t>
+  </si>
+  <si>
+    <t>Activation_date_MMDDYYYY_Date</t>
+  </si>
+  <si>
+    <t>Subscribers_Bank_A_C_No</t>
+  </si>
+  <si>
+    <t>Nominee_First_Name_ND_1</t>
+  </si>
+  <si>
+    <t>Nominee_Middle_Name_ND_1</t>
+  </si>
+  <si>
+    <t>Nominee_First_Name_ND_2</t>
+  </si>
+  <si>
+    <t>Nominee_Middle_Name_ND_2</t>
+  </si>
+  <si>
+    <t>Nominee_First_Name_ND_3</t>
+  </si>
+  <si>
+    <t>Nominee_Middle_Name_ND_3</t>
+  </si>
+  <si>
+    <t>Guardian_First_Name_ND_1</t>
+  </si>
+  <si>
+    <t>Guardian_Middle_Name_ND_1</t>
+  </si>
+  <si>
+    <t>Guardian_First_Name_ND_2</t>
+  </si>
+  <si>
+    <t>Guardian_Middle_Name_ND_2</t>
+  </si>
+  <si>
+    <t>Guardian_First_Name_ND_3</t>
+  </si>
+  <si>
+    <t>Guardian_Middle_Name_ND_3</t>
+  </si>
+  <si>
+    <t>row type</t>
+  </si>
+  <si>
+    <t>pd</t>
+  </si>
+  <si>
+    <t>p045_subscriber_bar_code</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>h001_line_sequence_number</t>
+  </si>
+  <si>
+    <t>h002_file_section_type</t>
+  </si>
+  <si>
+    <t>p003_file_type</t>
+  </si>
+  <si>
+    <t>h003_batch_id</t>
+  </si>
+  <si>
+    <t>h004_date_of_file_creation_mmddyyyy</t>
+  </si>
+  <si>
+    <t>h005_printer_id</t>
+  </si>
+  <si>
+    <t>h006_number_of_pran_request_records</t>
+  </si>
+  <si>
+    <t>h006_type_of_sector</t>
+  </si>
+  <si>
+    <t>p001_line_sequence_number</t>
+  </si>
+  <si>
+    <t>p002_file_section_type</t>
+  </si>
+  <si>
+    <t>p003_printing_mode</t>
+  </si>
+  <si>
+    <t>p004_request_transaction_id</t>
+  </si>
+  <si>
+    <t>p005_serial_no</t>
+  </si>
+  <si>
+    <t>p006_courier_id</t>
+  </si>
+  <si>
+    <t>p007_request_type</t>
+  </si>
+  <si>
+    <t>p008_pran</t>
+  </si>
+  <si>
+    <t>p009_acknowledgement_number</t>
+  </si>
+  <si>
+    <t>p010_first_name</t>
+  </si>
+  <si>
+    <t>p011_last_name_surname</t>
+  </si>
+  <si>
+    <t>p013_fathers_first_name</t>
+  </si>
+  <si>
+    <t>p014_fathers_last_name_surname</t>
+  </si>
+  <si>
+    <t>p015_fathers_middle_name</t>
+  </si>
+  <si>
+    <t>p016_date_of_birth</t>
+  </si>
+  <si>
+    <t>p017_subscriber_address_line_1</t>
+  </si>
+  <si>
+    <t>p018_subscriber_address_line_2</t>
+  </si>
+  <si>
+    <t>p019_subscriber_address_line_3</t>
+  </si>
+  <si>
+    <t>p020_subscriber_address_line_4</t>
+  </si>
+  <si>
+    <t>p021_subscriber_address_state</t>
+  </si>
+  <si>
+    <t>p022_subscriber_address_country</t>
+  </si>
+  <si>
+    <t>p023_subscriber_address_pin</t>
+  </si>
+  <si>
+    <t>p024_nl_ao_nl_oo_office_name</t>
+  </si>
+  <si>
+    <t>p025_nl_ao_nl_oo_reg_no</t>
+  </si>
+  <si>
+    <t>p026_nl_ao_nl_oo_address_line_1</t>
+  </si>
+  <si>
+    <t>p027_nl_ao_nl_oo_address_line_2</t>
+  </si>
+  <si>
+    <t>p028_nl_ao_nl_oo_address_line_3</t>
+  </si>
+  <si>
+    <t>p029_nl_ao_nl_oo_address_line_4</t>
+  </si>
+  <si>
+    <t>p030_nl_ao_nl_ooaddress_state</t>
+  </si>
+  <si>
+    <t>p031_nl_ao_nl_oo_address_country</t>
+  </si>
+  <si>
+    <t>p032_nl_ao_nl_oo_address_pin</t>
+  </si>
+  <si>
+    <t>p033_nl_ao_nl_cc_office_name</t>
+  </si>
+  <si>
+    <t>p034_nl_ao_nl_cc_dept</t>
+  </si>
+  <si>
+    <t>p035_nl_ao_nl_cc_reg_no</t>
+  </si>
+  <si>
+    <t>p036_nl_ao_nl_cc_address_line_1</t>
+  </si>
+  <si>
+    <t>p037_nl_ao_nl_cc_address_line_2</t>
+  </si>
+  <si>
+    <t>p038_nl_ao_nl_cc_address_line_3</t>
+  </si>
+  <si>
+    <t>p039_nl_ao_nl_cc_address_line_4</t>
+  </si>
+  <si>
+    <t>p040_nl_ao_nl_cc_address_state</t>
+  </si>
+  <si>
+    <t>p041_nl_ao_nl_cc_address_country</t>
+  </si>
+  <si>
+    <t>p042_nl_ao_nl_cc_address_pin</t>
+  </si>
+  <si>
+    <t>p043_nl_ao_nl_oo_bar_code</t>
+  </si>
+  <si>
+    <t>p044_nl_ao_nl_cc_bar_code</t>
+  </si>
+  <si>
+    <t>p046_photograph</t>
+  </si>
+  <si>
+    <t>p047_signature</t>
+  </si>
+  <si>
+    <t>p048_kit_dispatch_flag_for_subscriber</t>
+  </si>
+  <si>
+    <t>p049_mothers_name_flag</t>
+  </si>
+  <si>
+    <t>p050_mothers_first_name</t>
+  </si>
+  <si>
+    <t>p051_mothers_middle_name</t>
+  </si>
+  <si>
+    <t>p052_mothers_last_name</t>
+  </si>
+  <si>
+    <t>p053_sot_language_selected</t>
+  </si>
+  <si>
+    <t>p054_apy_flag</t>
+  </si>
+  <si>
+    <t>p055_spouse_name</t>
+  </si>
+  <si>
+    <t>p056_apy_service_provider_name</t>
+  </si>
+  <si>
+    <t>p057_pension_amount</t>
+  </si>
+  <si>
+    <t>p058_pension_start_date</t>
+  </si>
+  <si>
+    <t>c001_line_sequence_number</t>
+  </si>
+  <si>
+    <t>c002_file_section_type</t>
+  </si>
+  <si>
+    <t>c003_pran</t>
+  </si>
+  <si>
+    <t>c004_acknowledgement_number</t>
+  </si>
+  <si>
+    <t>c005_status</t>
+  </si>
+  <si>
+    <t>c006_activation_date_mmddyyyy</t>
+  </si>
+  <si>
+    <t>c007_first_name</t>
+  </si>
+  <si>
+    <t>c008_last_name_surname</t>
+  </si>
+  <si>
+    <t>c009_middle_name_</t>
+  </si>
+  <si>
+    <t>c010_fathers_first_name</t>
+  </si>
+  <si>
+    <t>c011_fathers_last_name_surname</t>
+  </si>
+  <si>
+    <t>c012_fathers_middle_name</t>
+  </si>
+  <si>
+    <t>c013_date_of_birth</t>
+  </si>
+  <si>
+    <t>c014_gender</t>
+  </si>
+  <si>
+    <t>c015_pan</t>
+  </si>
+  <si>
+    <t>c016_correspondence_address_line_1</t>
+  </si>
+  <si>
+    <t>c017_correspondence_address_line_2</t>
+  </si>
+  <si>
+    <t>c018_correspondence_address_line_3</t>
+  </si>
+  <si>
+    <t>c019_correspondence_address_line_4</t>
+  </si>
+  <si>
+    <t>c020_correspondence_state_union_terr</t>
+  </si>
+  <si>
+    <t>c021_correspondence_country</t>
+  </si>
+  <si>
+    <t>c022_correspondence_pin_code</t>
+  </si>
+  <si>
+    <t>c023_permanent_address_line_1</t>
+  </si>
+  <si>
+    <t>c024_permanent_address_line_2</t>
+  </si>
+  <si>
+    <t>c025_permanent_address_line_3</t>
+  </si>
+  <si>
+    <t>c026_permanent_address_line_4</t>
+  </si>
+  <si>
+    <t>c027_permanent_address_state_union_terr</t>
+  </si>
+  <si>
+    <t>c028_permanent_address_country</t>
+  </si>
+  <si>
+    <t>c029_permanent_address_pin_code</t>
+  </si>
+  <si>
+    <t>c030_telephone_number</t>
+  </si>
+  <si>
+    <t>c031_mobile_number</t>
+  </si>
+  <si>
+    <t>c032_fax_number</t>
+  </si>
+  <si>
+    <t>c033_email</t>
+  </si>
+  <si>
+    <t>c034_sms_subscription_flag</t>
+  </si>
+  <si>
+    <t>c035_email_subscription_flag</t>
+  </si>
+  <si>
+    <t>c036_subscribers_bank_type</t>
+  </si>
+  <si>
+    <t>c037_subscriber’s_bank_a_c_no</t>
+  </si>
+  <si>
+    <t>c038_bank_name</t>
+  </si>
+  <si>
+    <t>c039_bank_branch</t>
+  </si>
+  <si>
+    <t>c040_bank_address</t>
+  </si>
+  <si>
+    <t>c041_bank_address_pin</t>
+  </si>
+  <si>
+    <t>c042_bank_micr_code</t>
+  </si>
+  <si>
+    <t>c043_bank_ifs_code</t>
+  </si>
+  <si>
+    <t>c044_number_of_nominees</t>
+  </si>
+  <si>
+    <t>c045_number_of_schemes</t>
+  </si>
+  <si>
+    <t>c046_pan_verification_flag</t>
+  </si>
+  <si>
+    <t>c047_sip_flag</t>
+  </si>
+  <si>
+    <t>c048_kyc_flag</t>
+  </si>
+  <si>
+    <t>c049_susbcriber_occupation</t>
+  </si>
+  <si>
+    <t>c050_incomplete_bank_details_flag</t>
+  </si>
+  <si>
+    <t>c051_incomplete_nominee_details_flag</t>
+  </si>
+  <si>
+    <t>c052_nominee_rejection_reasons</t>
+  </si>
+  <si>
+    <t>c053_incomplete_scheme_details_flag</t>
+  </si>
+  <si>
+    <t>c054_scheme_rejection_reasons</t>
+  </si>
+  <si>
+    <t>c055_pan_duplicate_flag</t>
+  </si>
+  <si>
+    <t>c056_no_of_switch_used</t>
+  </si>
+  <si>
+    <t>c057_govt_type_of_subscriber_record</t>
+  </si>
+  <si>
+    <t>c058_scheme_pref_type</t>
+  </si>
+  <si>
+    <t>c059_sub_regional_language_code</t>
+  </si>
+  <si>
+    <t>c060_sub_regional_first_name</t>
+  </si>
+  <si>
+    <t>c061_sub_regional_middle_name</t>
+  </si>
+  <si>
+    <t>c062_subregional_last_name</t>
+  </si>
+  <si>
+    <t>c063_sub_fathers_regional_first_name</t>
+  </si>
+  <si>
+    <t>c064_sub_fathers_regional_middle_name</t>
+  </si>
+  <si>
+    <t>c065_sub_fathers_regional_last_name</t>
+  </si>
+  <si>
+    <t>c066_uid</t>
+  </si>
+  <si>
+    <t>c067_membership_number</t>
+  </si>
+  <si>
+    <t>c068_swavalamban_flag</t>
+  </si>
+  <si>
+    <t>c069_sub_comb_form_flag</t>
+  </si>
+  <si>
+    <t>c070_apy_flag</t>
+  </si>
+  <si>
+    <t>c071_spouse_name</t>
+  </si>
+  <si>
+    <t>c072_apy_service_provider_name</t>
+  </si>
+  <si>
+    <t>c073_pension_amount</t>
+  </si>
+  <si>
+    <t>c074_pension_start_date</t>
+  </si>
+  <si>
+    <t>n001_line_sequence_number</t>
+  </si>
+  <si>
+    <t>n002_file_section_type</t>
+  </si>
+  <si>
+    <t>n005_nominee_serial_no</t>
+  </si>
+  <si>
+    <t>n006_nominee_first_name</t>
+  </si>
+  <si>
+    <t>n007_nominee_last_name</t>
+  </si>
+  <si>
+    <t>n008_nominee_middle_name</t>
+  </si>
+  <si>
+    <t>n009_nominee_date_of_birth</t>
+  </si>
+  <si>
+    <t>n010_relationship</t>
+  </si>
+  <si>
+    <t>n011_major_minor_flag</t>
+  </si>
+  <si>
+    <t>n012_guardian_first_name</t>
+  </si>
+  <si>
+    <t>n013_guardian_last_name</t>
+  </si>
+  <si>
+    <t>n014_guardian_middle_name</t>
+  </si>
+  <si>
+    <t>n015_percentage_share</t>
+  </si>
+  <si>
+    <t>n016_nominee_invalid_condition</t>
+  </si>
+  <si>
+    <t>s001_line_sequence_number</t>
+  </si>
+  <si>
+    <t>s002_file_section_type</t>
+  </si>
+  <si>
+    <t>s003_record_number_line_item_number</t>
+  </si>
+  <si>
+    <t>s004_pfm_id</t>
+  </si>
+  <si>
+    <t>s005_pfm_name</t>
+  </si>
+  <si>
+    <t>s006_scheme_id</t>
+  </si>
+  <si>
+    <t>s007_scheme_name</t>
+  </si>
+  <si>
+    <t>s008_percentage_of_investment</t>
+  </si>
+  <si>
+    <t>p012_middle_name</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>is it duplicate?</t>
+  </si>
+  <si>
+    <t>is there any logic needed?</t>
+  </si>
+  <si>
+    <t>nd-1</t>
+  </si>
+  <si>
+    <t>nd-2</t>
+  </si>
+  <si>
+    <t>nd-3</t>
+  </si>
+  <si>
+    <t>sd-1</t>
+  </si>
+  <si>
+    <t>sd-2</t>
+  </si>
+  <si>
+    <t>sd-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -734,7 +1014,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,6 +1194,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1075,8 +1361,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1431,61 +1719,1324 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>269</v>
+      </c>
+      <c r="E38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>269</v>
+      </c>
+      <c r="E39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>269</v>
+      </c>
+      <c r="E40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>269</v>
+      </c>
+      <c r="E44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" t="s">
+        <v>269</v>
+      </c>
+      <c r="E53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>269</v>
+      </c>
+      <c r="E56" t="s">
+        <v>211</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" t="s">
+        <v>269</v>
+      </c>
+      <c r="E57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" t="s">
+        <v>269</v>
+      </c>
+      <c r="E58" t="s">
+        <v>207</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" t="s">
+        <v>269</v>
+      </c>
+      <c r="E59" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" t="s">
+        <v>269</v>
+      </c>
+      <c r="E60" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" t="s">
+        <v>273</v>
+      </c>
+      <c r="E61" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" t="s">
+        <v>273</v>
+      </c>
+      <c r="E62" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" t="s">
+        <v>273</v>
+      </c>
+      <c r="E63" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" t="s">
+        <v>274</v>
+      </c>
+      <c r="E64" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" t="s">
+        <v>274</v>
+      </c>
+      <c r="E65" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" t="s">
+        <v>274</v>
+      </c>
+      <c r="E66" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" t="s">
+        <v>275</v>
+      </c>
+      <c r="E67" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" t="s">
+        <v>275</v>
+      </c>
+      <c r="E68" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" t="s">
+        <v>275</v>
+      </c>
+      <c r="E69" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" t="s">
+        <v>273</v>
+      </c>
+      <c r="E70" t="s">
+        <v>252</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" t="s">
+        <v>274</v>
+      </c>
+      <c r="E71" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" t="s">
+        <v>275</v>
+      </c>
+      <c r="E72" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" t="s">
+        <v>273</v>
+      </c>
+      <c r="E73" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" t="s">
+        <v>274</v>
+      </c>
+      <c r="E74" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" t="s">
+        <v>275</v>
+      </c>
+      <c r="E75" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" t="s">
+        <v>273</v>
+      </c>
+      <c r="E76" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" t="s">
+        <v>274</v>
+      </c>
+      <c r="E77" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D78" t="s">
+        <v>275</v>
+      </c>
+      <c r="E78" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" t="s">
+        <v>273</v>
+      </c>
+      <c r="E79" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" t="s">
+        <v>273</v>
+      </c>
+      <c r="E80" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" t="s">
+        <v>273</v>
+      </c>
+      <c r="E81" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" t="s">
+        <v>274</v>
+      </c>
+      <c r="E82" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" t="s">
+        <v>274</v>
+      </c>
+      <c r="E83" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84" t="s">
+        <v>274</v>
+      </c>
+      <c r="E84" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" t="s">
+        <v>275</v>
+      </c>
+      <c r="E85" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" t="s">
+        <v>275</v>
+      </c>
+      <c r="E86" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" t="s">
+        <v>275</v>
+      </c>
+      <c r="E87" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>73</v>
+      </c>
+      <c r="B88" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" t="s">
+        <v>276</v>
+      </c>
+      <c r="E88" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>74</v>
+      </c>
+      <c r="B89" t="s">
+        <v>74</v>
+      </c>
+      <c r="D89" t="s">
+        <v>277</v>
+      </c>
+      <c r="E89" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" t="s">
+        <v>75</v>
+      </c>
+      <c r="D90" t="s">
+        <v>278</v>
+      </c>
+      <c r="E90" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" t="s">
+        <v>276</v>
+      </c>
+      <c r="E91" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" t="s">
+        <v>277</v>
+      </c>
+      <c r="E92" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" t="s">
+        <v>278</v>
+      </c>
+      <c r="E93" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" t="s">
+        <v>79</v>
+      </c>
+      <c r="D94" t="s">
+        <v>276</v>
+      </c>
+      <c r="E94" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95" t="s">
+        <v>277</v>
+      </c>
+      <c r="E95" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96" t="s">
+        <v>278</v>
+      </c>
+      <c r="E96" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E96" xr:uid="{FD137A74-D8C4-4D67-9E7A-716C9F92DB0E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1509,963 +3060,888 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B190"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B187" sqref="B187"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>114</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>119</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>120</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>122</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>124</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>127</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>128</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>130</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>132</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>134</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>137</v>
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>138</v>
+        <v>237</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>139</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>142</v>
+        <v>241</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>143</v>
+        <v>242</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>144</v>
+        <v>243</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>146</v>
+        <v>245</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>152</v>
+        <v>250</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>153</v>
+        <v>251</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>155</v>
+        <v>253</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>156</v>
+        <v>254</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>159</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>160</v>
+        <v>258</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>161</v>
+        <v>259</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>163</v>
+        <v>260</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>164</v>
+        <v>261</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>166</v>
+        <v>263</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>167</v>
+        <v>264</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>168</v>
+        <v>265</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>170</v>
+        <v>267</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ddl_sql/NpsLite_Letter.xlsx
+++ b/ddl_sql/NpsLite_Letter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spadte\source\repos\padtes\DotNetCorePOC\ddl_sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35687396-84BB-46CF-839E-BB52B743636F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF9C42D-E78F-4DF3-B23C-9A82C4BB80EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="293">
   <si>
     <t>database column</t>
   </si>
@@ -872,6 +872,48 @@
   </si>
   <si>
     <t>sd-3</t>
+  </si>
+  <si>
+    <t>x_p021_subscriber_address_state</t>
+  </si>
+  <si>
+    <t>x_p030_nl_ao_nl_ooaddress_state</t>
+  </si>
+  <si>
+    <t>x_p040_nl_ao_nl_cc_address_state</t>
+  </si>
+  <si>
+    <t>x_c020_correspondence_state_union_terr</t>
+  </si>
+  <si>
+    <t>x_c027_permanent_address_state_union_terr</t>
+  </si>
+  <si>
+    <t>x_p022_subscriber_address_country</t>
+  </si>
+  <si>
+    <t>x_p031_nl_ao_nl_oo_address_country</t>
+  </si>
+  <si>
+    <t>x_p041_nl_ao_nl_cc_address_country</t>
+  </si>
+  <si>
+    <t>x_c021_correspondence_country</t>
+  </si>
+  <si>
+    <t>x_c028_permanent_address_country</t>
+  </si>
+  <si>
+    <t>x_p006_courier_code2</t>
+  </si>
+  <si>
+    <t>x_formatted_addr_sub</t>
+  </si>
+  <si>
+    <t>x_hdr_date</t>
+  </si>
+  <si>
+    <t>x_deliverymode</t>
   </si>
 </sst>
 </file>
@@ -1720,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,9 +1775,12 @@
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1752,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1763,7 +1808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1776,8 +1821,19 @@
       <c r="E3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <f>"{{"&amp;B3&amp;"))"</f>
+        <v>{{*Subscriberbarcode*))</v>
+      </c>
+      <c r="I3" t="str">
+        <f>"'"&amp;D3&amp;"'-&gt;0-&gt;&gt;'"&amp;E3&amp;"'"</f>
+        <v>'pd'-&gt;0-&gt;&gt;'p045_subscriber_bar_code'</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1790,8 +1846,19 @@
       <c r="E4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H16" si="0">"{{"&amp;B4&amp;"))"</f>
+        <v>{{PRAN))</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"'"&amp;D4&amp;"'-&gt;0-&gt;&gt;'"&amp;E4&amp;"'"</f>
+        <v>'pd'-&gt;0-&gt;&gt;'p008_pran'</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1804,8 +1871,19 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>{{Acknowledgement_Number_Printercode_couriercode))</v>
+      </c>
+      <c r="I5" t="str">
+        <f>"'"&amp;D5&amp;"'-&gt;0-&gt;&gt;'"&amp;E5&amp;"'"</f>
+        <v>'xx'-&gt;0-&gt;&gt;'x_document_id'</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1815,8 +1893,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1829,8 +1911,19 @@
       <c r="E7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>{{Firstname))</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" ref="I7:I16" si="1">"'"&amp;D7&amp;"'-&gt;0-&gt;&gt;'"&amp;E7&amp;"'"</f>
+        <v>'pd'-&gt;0-&gt;&gt;'p010_first_name'</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1843,8 +1936,19 @@
       <c r="E8" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>{{Middlename))</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>'pd'-&gt;0-&gt;&gt;'p012_middle_name'</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1857,8 +1961,19 @@
       <c r="E9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>{{LastName_Surname))</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>'pd'-&gt;0-&gt;&gt;'p011_last_name_surname'</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1871,8 +1986,19 @@
       <c r="E10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>{{SubscriberAddressline1))</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>'pd'-&gt;0-&gt;&gt;'p017_subscriber_address_line_1'</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1885,8 +2011,19 @@
       <c r="E11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>{{SubscriberAddressline2))</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>'pd'-&gt;0-&gt;&gt;'p018_subscriber_address_line_2'</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1899,8 +2036,19 @@
       <c r="E12" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>{{SubscriberAddressline3))</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>'pd'-&gt;0-&gt;&gt;'p019_subscriber_address_line_3'</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1913,8 +2061,19 @@
       <c r="E13" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>{{SubscriberAddressline4))</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>'pd'-&gt;0-&gt;&gt;'p020_subscriber_address_line_4'</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1925,10 +2084,21 @@
         <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>{{SubscriberAddressState))</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>'pd'-&gt;0-&gt;&gt;'x_p021_subscriber_address_state'</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1941,8 +2111,19 @@
       <c r="E15" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>{{SubscriberAddressCountry))</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>'pd'-&gt;0-&gt;&gt;'p022_subscriber_address_country'</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1955,8 +2136,19 @@
       <c r="E16" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>{{MobileNumber))</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>'cd'-&gt;0-&gt;&gt;'c031_mobile_number'</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1966,8 +2158,12 @@
       <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+      <c r="G17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1977,8 +2173,12 @@
       <c r="E18" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
+      <c r="G18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1988,8 +2188,12 @@
       <c r="E19" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="G19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1999,8 +2203,12 @@
       <c r="E20" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
+      <c r="G20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2010,8 +2218,12 @@
       <c r="E21" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+      <c r="G21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2021,8 +2233,12 @@
       <c r="E22" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+      <c r="G22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2032,8 +2248,12 @@
       <c r="E23" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+      <c r="G23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2043,8 +2263,12 @@
       <c r="E24" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="2"/>
+      <c r="G24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2054,8 +2278,12 @@
       <c r="E25" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+      <c r="G25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2065,8 +2293,12 @@
       <c r="E26" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
+      <c r="G26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -2079,8 +2311,19 @@
       <c r="E27" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>25</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" ref="H27:H28" si="2">"{{"&amp;B27&amp;"))"</f>
+        <v>{{NL-AO_NL-OO_Reg._No))</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" ref="I27:I28" si="3">"'"&amp;D27&amp;"'-&gt;0-&gt;&gt;'"&amp;E27&amp;"'"</f>
+        <v>'pd'-&gt;0-&gt;&gt;'p025_nl_ao_nl_oo_reg_no'</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -2093,8 +2336,19 @@
       <c r="E28" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>26</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>{{NL-AO_NL-CC_Reg._No))</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="3"/>
+        <v>'pd'-&gt;0-&gt;&gt;'p035_nl_ao_nl_cc_reg_no'</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -2104,8 +2358,11 @@
       <c r="C29" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2118,8 +2375,19 @@
       <c r="E30" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>28</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" ref="H30" si="4">"{{"&amp;B30&amp;"))"</f>
+        <v>{{NL-AO_NL-OO_Office_Name))</v>
+      </c>
+      <c r="I30" t="str">
+        <f>"'"&amp;D30&amp;"'-&gt;0-&gt;&gt;'"&amp;E30&amp;"'"</f>
+        <v>'pd'-&gt;0-&gt;&gt;'p024_nl_ao_nl_oo_office_name'</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2129,8 +2397,12 @@
       <c r="E31" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="2"/>
+      <c r="G31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2140,8 +2412,12 @@
       <c r="E32" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="2"/>
+      <c r="G32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2151,8 +2427,12 @@
       <c r="E33" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="2"/>
+      <c r="G33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2165,8 +2445,19 @@
       <c r="E34" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>32</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" ref="H34:H36" si="5">"{{"&amp;B34&amp;"))"</f>
+        <v>{{Father_First_Name))</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" ref="I34:I36" si="6">"'"&amp;D34&amp;"'-&gt;0-&gt;&gt;'"&amp;E34&amp;"'"</f>
+        <v>'pd'-&gt;0-&gt;&gt;'p013_fathers_first_name'</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2179,8 +2470,19 @@
       <c r="E35" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>33</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="5"/>
+        <v>{{Father_Middle_Name))</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="6"/>
+        <v>'pd'-&gt;0-&gt;&gt;'p015_fathers_middle_name'</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2193,8 +2495,19 @@
       <c r="E36" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>34</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="5"/>
+        <v>{{Father_Last_Name))</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="6"/>
+        <v>'pd'-&gt;0-&gt;&gt;'p014_fathers_last_name_surname'</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2207,8 +2520,11 @@
       <c r="E37" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -2221,8 +2537,19 @@
       <c r="E38" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>36</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" ref="H38:H41" si="7">"{{"&amp;B38&amp;"))"</f>
+        <v>{{Activation_date_MMDDYYYY_Date))</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" ref="I38:I43" si="8">"'"&amp;D38&amp;"'-&gt;0-&gt;&gt;'"&amp;E38&amp;"'"</f>
+        <v>'cd'-&gt;0-&gt;&gt;'c006_activation_date_mmddyyyy'</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2235,8 +2562,19 @@
       <c r="E39" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>37</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="7"/>
+        <v>{{Telephone_Number))</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="8"/>
+        <v>'cd'-&gt;0-&gt;&gt;'c030_telephone_number'</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2249,8 +2587,19 @@
       <c r="E40" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>38</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="7"/>
+        <v>{{PAN))</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="8"/>
+        <v>'cd'-&gt;0-&gt;&gt;'c015_pan'</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2267,8 +2616,19 @@
       <c r="F41" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>39</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="7"/>
+        <v>{{Date_Of_Birth))</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="8"/>
+        <v>'cd'-&gt;0-&gt;&gt;'c013_date_of_birth'</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2278,8 +2638,12 @@
       <c r="E42" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="2"/>
+      <c r="G42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2292,8 +2656,19 @@
       <c r="E43" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>41</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" ref="H43:H44" si="9">"{{"&amp;B43&amp;"))"</f>
+        <v>{{Gender))</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="8"/>
+        <v>'xx'-&gt;0-&gt;&gt;'x_gender'</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2306,8 +2681,19 @@
       <c r="E44" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>42</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="9"/>
+        <v>{{Email))</v>
+      </c>
+      <c r="I44" t="str">
+        <f>"'"&amp;D44&amp;"'-&gt;0-&gt;&gt;'"&amp;E44&amp;"'"</f>
+        <v>'cd'-&gt;0-&gt;&gt;'c033_email'</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -2317,8 +2703,12 @@
       <c r="E45" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="2"/>
+      <c r="G45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -2328,8 +2718,12 @@
       <c r="E46" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="2"/>
+      <c r="G46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -2339,8 +2733,12 @@
       <c r="E47" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="2"/>
+      <c r="G47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2350,8 +2748,12 @@
       <c r="E48" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="2"/>
+      <c r="G48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -2361,8 +2763,12 @@
       <c r="E49" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="2"/>
+      <c r="G49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -2375,8 +2781,19 @@
       <c r="E50" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>48</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" ref="H50:H52" si="10">"{{"&amp;B50&amp;"))"</f>
+        <v>{{SubscriberAddressPIN))</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" ref="I50:I51" si="11">"'"&amp;D50&amp;"'-&gt;0-&gt;&gt;'"&amp;E50&amp;"'"</f>
+        <v>'pd'-&gt;0-&gt;&gt;'p023_subscriber_address_pin'</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -2392,19 +2809,44 @@
       <c r="F51" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>49</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="10"/>
+        <v>{{SubscriberAddressCountry))</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="11"/>
+        <v>'pd'-&gt;0-&gt;&gt;'p022_subscriber_address_country'</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>47</v>
       </c>
       <c r="B52" t="s">
         <v>47</v>
       </c>
+      <c r="D52" t="s">
+        <v>269</v>
+      </c>
       <c r="E52" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>50</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="10"/>
+        <v>{{Bank_Name))</v>
+      </c>
+      <c r="I52" t="str">
+        <f>"'"&amp;D52&amp;"'-&gt;0-&gt;&gt;'"&amp;E52&amp;"'"</f>
+        <v>'cd'-&gt;0-&gt;&gt;'c038_bank_name'</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>48</v>
       </c>
@@ -2417,8 +2859,19 @@
       <c r="E53" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>51</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" ref="H53" si="12">"{{"&amp;B53&amp;"))"</f>
+        <v>{{Subscribers_Bank_A_C_No))</v>
+      </c>
+      <c r="I53" t="str">
+        <f>"'"&amp;D53&amp;"'-&gt;0-&gt;&gt;'"&amp;E53&amp;"'"</f>
+        <v>'cd'-&gt;0-&gt;&gt;'c037_subscriber’s_bank_a_c_no'</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -2430,8 +2883,12 @@
       <c r="E54" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="2"/>
+      <c r="G54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -2441,8 +2898,11 @@
       <c r="E55" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -2458,8 +2918,19 @@
       <c r="F56" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>54</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" ref="H56:H96" si="13">"{{"&amp;B56&amp;"))"</f>
+        <v>{{Bank_Address))</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" ref="I56:I61" si="14">"'"&amp;D56&amp;"'-&gt;0-&gt;&gt;'"&amp;E56&amp;"'"</f>
+        <v>'cd'-&gt;0-&gt;&gt;'c040_bank_address'</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -2472,8 +2943,19 @@
       <c r="E57" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>55</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Bank_Address_PIN))</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="14"/>
+        <v>'cd'-&gt;0-&gt;&gt;'c041_bank_address_pin'</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>52</v>
       </c>
@@ -2489,8 +2971,19 @@
       <c r="F58" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>56</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Subscribers_Bank_Type))</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="14"/>
+        <v>'cd'-&gt;0-&gt;&gt;'c036_subscribers_bank_type'</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -2503,8 +2996,19 @@
       <c r="E59" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>57</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Bank_MICR_Code))</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="14"/>
+        <v>'cd'-&gt;0-&gt;&gt;'c042_bank_micr_code'</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -2517,8 +3021,19 @@
       <c r="E60" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>58</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Bank_Branch))</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="14"/>
+        <v>'cd'-&gt;0-&gt;&gt;'c039_bank_branch'</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2531,8 +3046,19 @@
       <c r="E61" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>59</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Nominee_First_Name_ND_1))</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="14"/>
+        <v>'nd-1'-&gt;0-&gt;&gt;'n006_nominee_first_name'</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2545,8 +3071,19 @@
       <c r="E62" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>60</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Nominee_Middle_Name_ND_1))</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" ref="I62:I69" si="15">"'"&amp;D62&amp;"'-&gt;0-&gt;&gt;'"&amp;E62&amp;"'"</f>
+        <v>'nd-1'-&gt;0-&gt;&gt;'n008_nominee_middle_name'</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>56</v>
       </c>
@@ -2559,8 +3096,19 @@
       <c r="E63" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>61</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Nominee_Last_Name_ND_1))</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="15"/>
+        <v>'nd-1'-&gt;0-&gt;&gt;'n007_nominee_last_name'</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>54</v>
       </c>
@@ -2573,8 +3121,19 @@
       <c r="E64" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>62</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Nominee_First_Name_ND_2))</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="15"/>
+        <v>'nd-2'-&gt;0-&gt;&gt;'n006_nominee_first_name'</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>55</v>
       </c>
@@ -2587,8 +3146,19 @@
       <c r="E65" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>63</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Nominee_Middle_Name_ND_2))</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="15"/>
+        <v>'nd-2'-&gt;0-&gt;&gt;'n008_nominee_middle_name'</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>57</v>
       </c>
@@ -2601,8 +3171,19 @@
       <c r="E66" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>64</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Nominee_Last_Name_ND_2))</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="15"/>
+        <v>'nd-2'-&gt;0-&gt;&gt;'n007_nominee_last_name'</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>54</v>
       </c>
@@ -2615,8 +3196,19 @@
       <c r="E67" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>65</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Nominee_First_Name_ND_3))</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="15"/>
+        <v>'nd-3'-&gt;0-&gt;&gt;'n006_nominee_first_name'</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>55</v>
       </c>
@@ -2629,8 +3221,19 @@
       <c r="E68" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>66</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Nominee_Middle_Name_ND_3))</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="15"/>
+        <v>'nd-3'-&gt;0-&gt;&gt;'n008_nominee_middle_name'</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -2643,8 +3246,19 @@
       <c r="E69" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>67</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Nominee_Last_Name_ND_3))</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="15"/>
+        <v>'nd-3'-&gt;0-&gt;&gt;'n007_nominee_last_name'</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>59</v>
       </c>
@@ -2660,8 +3274,19 @@
       <c r="F70" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>68</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Nominee_Date_of_Birth_ND_1))</v>
+      </c>
+      <c r="I70" t="str">
+        <f>"'"&amp;D70&amp;"'-&gt;0-&gt;&gt;'"&amp;E70&amp;"'"</f>
+        <v>'nd-1'-&gt;0-&gt;&gt;'n009_nominee_date_of_birth'</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -2674,8 +3299,19 @@
       <c r="E71" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>69</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Nominee_Date_of_Birth_ND_2))</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" ref="I71:I72" si="16">"'"&amp;D71&amp;"'-&gt;0-&gt;&gt;'"&amp;E71&amp;"'"</f>
+        <v>'nd-2'-&gt;0-&gt;&gt;'n009_nominee_date_of_birth'</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>61</v>
       </c>
@@ -2688,8 +3324,19 @@
       <c r="E72" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>70</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Nominee_Date_of_Birth_ND_3))</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="16"/>
+        <v>'nd-3'-&gt;0-&gt;&gt;'n009_nominee_date_of_birth'</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>62</v>
       </c>
@@ -2702,8 +3349,19 @@
       <c r="E73" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>71</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Relationship_ND_1))</v>
+      </c>
+      <c r="I73" t="str">
+        <f>"'"&amp;D73&amp;"'-&gt;0-&gt;&gt;'"&amp;E73&amp;"'"</f>
+        <v>'nd-1'-&gt;0-&gt;&gt;'n010_relationship'</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -2716,8 +3374,19 @@
       <c r="E74" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>72</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Relationship_ND_2))</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" ref="I74:I75" si="17">"'"&amp;D74&amp;"'-&gt;0-&gt;&gt;'"&amp;E74&amp;"'"</f>
+        <v>'nd-2'-&gt;0-&gt;&gt;'n010_relationship'</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>64</v>
       </c>
@@ -2730,8 +3399,19 @@
       <c r="E75" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>73</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Relationship_ND_3))</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="17"/>
+        <v>'nd-3'-&gt;0-&gt;&gt;'n010_relationship'</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>65</v>
       </c>
@@ -2744,8 +3424,19 @@
       <c r="E76" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>74</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Percentage_Share_ND_1))</v>
+      </c>
+      <c r="I76" t="str">
+        <f>"'"&amp;D76&amp;"'-&gt;0-&gt;&gt;'"&amp;E76&amp;"'"</f>
+        <v>'nd-1'-&gt;0-&gt;&gt;'n015_percentage_share'</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -2758,8 +3449,19 @@
       <c r="E77" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>75</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Percentage_Share_ND_2))</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" ref="I77:I96" si="18">"'"&amp;D77&amp;"'-&gt;0-&gt;&gt;'"&amp;E77&amp;"'"</f>
+        <v>'nd-2'-&gt;0-&gt;&gt;'n015_percentage_share'</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>67</v>
       </c>
@@ -2772,8 +3474,19 @@
       <c r="E78" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>76</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Percentage_Share_ND_3))</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="18"/>
+        <v>'nd-3'-&gt;0-&gt;&gt;'n015_percentage_share'</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>68</v>
       </c>
@@ -2786,8 +3499,19 @@
       <c r="E79" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>77</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Guardian_First_Name_ND_1))</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="18"/>
+        <v>'nd-1'-&gt;0-&gt;&gt;'n012_guardian_first_name'</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>69</v>
       </c>
@@ -2800,8 +3524,19 @@
       <c r="E80" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>78</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Guardian_Middle_Name_ND_1))</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="18"/>
+        <v>'nd-1'-&gt;0-&gt;&gt;'n014_guardian_middle_name'</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>70</v>
       </c>
@@ -2814,8 +3549,19 @@
       <c r="E81" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>79</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Guardian_Last_Name_ND_1))</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="18"/>
+        <v>'nd-1'-&gt;0-&gt;&gt;'n013_guardian_last_name'</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>68</v>
       </c>
@@ -2828,8 +3574,19 @@
       <c r="E82" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>80</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Guardian_First_Name_ND_2))</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="18"/>
+        <v>'nd-2'-&gt;0-&gt;&gt;'n012_guardian_first_name'</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>69</v>
       </c>
@@ -2842,8 +3599,19 @@
       <c r="E83" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>81</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Guardian_Middle_Name_ND_2))</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="18"/>
+        <v>'nd-2'-&gt;0-&gt;&gt;'n014_guardian_middle_name'</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>71</v>
       </c>
@@ -2856,8 +3624,19 @@
       <c r="E84" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>82</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Guardian_Last_Name_ND_2))</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="18"/>
+        <v>'nd-2'-&gt;0-&gt;&gt;'n013_guardian_last_name'</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>68</v>
       </c>
@@ -2870,8 +3649,19 @@
       <c r="E85" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>83</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Guardian_First_Name_ND_3))</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="18"/>
+        <v>'nd-3'-&gt;0-&gt;&gt;'n012_guardian_first_name'</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>69</v>
       </c>
@@ -2884,8 +3674,19 @@
       <c r="E86" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>84</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Guardian_Middle_Name_ND_3))</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="18"/>
+        <v>'nd-3'-&gt;0-&gt;&gt;'n014_guardian_middle_name'</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>72</v>
       </c>
@@ -2898,8 +3699,19 @@
       <c r="E87" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>85</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Guardian_Last_Name_ND_3))</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="18"/>
+        <v>'nd-3'-&gt;0-&gt;&gt;'n013_guardian_last_name'</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>73</v>
       </c>
@@ -2912,8 +3724,19 @@
       <c r="E88" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>86</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="13"/>
+        <v>{{PFM_Name_SD_1))</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="18"/>
+        <v>'sd-1'-&gt;0-&gt;&gt;'s005_pfm_name'</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>74</v>
       </c>
@@ -2926,8 +3749,19 @@
       <c r="E89" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>87</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="13"/>
+        <v>{{PFM_Name_SD_2))</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="18"/>
+        <v>'sd-2'-&gt;0-&gt;&gt;'s005_pfm_name'</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>75</v>
       </c>
@@ -2940,8 +3774,19 @@
       <c r="E90" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>88</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="13"/>
+        <v>{{PFM_Name_SD_3))</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="18"/>
+        <v>'sd-3'-&gt;0-&gt;&gt;'s005_pfm_name'</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>76</v>
       </c>
@@ -2954,8 +3799,19 @@
       <c r="E91" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>89</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Scheme_Name_SD_1))</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="18"/>
+        <v>'sd-1'-&gt;0-&gt;&gt;'s007_scheme_name'</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>77</v>
       </c>
@@ -2968,8 +3824,19 @@
       <c r="E92" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>90</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Scheme_Name_SD_2))</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="18"/>
+        <v>'sd-2'-&gt;0-&gt;&gt;'s007_scheme_name'</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>78</v>
       </c>
@@ -2982,8 +3849,19 @@
       <c r="E93" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>91</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Scheme_Name_SD_3))</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="18"/>
+        <v>'sd-3'-&gt;0-&gt;&gt;'s007_scheme_name'</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -2996,8 +3874,19 @@
       <c r="E94" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>92</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Percentage_of_Investment_SD_1))</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="18"/>
+        <v>'sd-1'-&gt;0-&gt;&gt;'s008_percentage_of_investment'</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>80</v>
       </c>
@@ -3010,8 +3899,19 @@
       <c r="E95" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>93</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Percentage_of_Investment_SD_2))</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="18"/>
+        <v>'sd-2'-&gt;0-&gt;&gt;'s008_percentage_of_investment'</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>81</v>
       </c>
@@ -3023,6 +3923,17 @@
       </c>
       <c r="E96" t="s">
         <v>267</v>
+      </c>
+      <c r="G96">
+        <v>94</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="13"/>
+        <v>{{Percentage_of_Investment_SD_3))</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="18"/>
+        <v>'sd-3'-&gt;0-&gt;&gt;'s008_percentage_of_investment'</v>
       </c>
     </row>
   </sheetData>
@@ -3063,8 +3974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B190"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3938,8 +4849,86 @@
       <c r="A173" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>3</v>
       </c>
